--- a/data/bulk/templates/Bulk_Upload_template_240227.xlsx
+++ b/data/bulk/templates/Bulk_Upload_template_240227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FC013-D00E-4DF4-836C-A5BF31E7ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988C470-C815-4213-BA98-56312874BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <t>مجهول</t>
   </si>
   <si>
-    <t>Archaeological Assessment</t>
-  </si>
-  <si>
     <t>التقييم الأثري</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Cultural Period</t>
   </si>
   <si>
     <t>الفترة الحضارية</t>
@@ -540,9 +534,6 @@
   </si>
   <si>
     <t>التاريخ الهجري الشمسي (إلى تاريخ) (تأريخ فارسي)</t>
-  </si>
-  <si>
-    <t>Site Features</t>
   </si>
   <si>
     <t>ظواهر الموقع</t>
@@ -2955,6 +2946,15 @@
   </si>
   <si>
     <t>#Intepretation Number</t>
+  </si>
+  <si>
+    <t>#Archaeological Assessment</t>
+  </si>
+  <si>
+    <t>#Cultural Period</t>
+  </si>
+  <si>
+    <t>#Site Features</t>
   </si>
 </sst>
 </file>
@@ -3846,9 +3846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C266" sqref="C266"/>
+      <selection pane="topRight" activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3865,10 +3865,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="3"/>
@@ -3876,7 +3876,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>13</v>
@@ -4015,10 +4015,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
@@ -4051,10 +4051,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>81</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
@@ -4087,16 +4087,16 @@
         <v>23</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4127,10 +4127,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="5"/>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4221,25 +4221,25 @@
     </row>
     <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -4263,25 +4263,25 @@
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="F12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4305,22 +4305,22 @@
     </row>
     <row r="13" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="F13" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -4360,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>6</v>
@@ -4415,13 +4415,13 @@
     </row>
     <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="8"/>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>0</v>
@@ -4513,16 +4513,16 @@
     </row>
     <row r="19" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="D19" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>115</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
@@ -4549,16 +4549,16 @@
     </row>
     <row r="20" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="D20" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
@@ -4591,10 +4591,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
@@ -4627,10 +4627,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>9</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="6"/>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="50" t="s">
         <v>0</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="11"/>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="11"/>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="53" t="s">
         <v>129</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>131</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="8"/>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="11"/>
@@ -4885,13 +4885,13 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="53" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>136</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="8"/>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="11"/>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>139</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>141</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="8"/>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="55"/>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>900</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="3"/>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -5141,16 +5141,16 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>150</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="57"/>
@@ -5177,16 +5177,16 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="5"/>
@@ -5213,16 +5213,16 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>155</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>158</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="5"/>
@@ -5249,25 +5249,25 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="E41" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -5291,25 +5291,25 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="E42" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -5333,13 +5333,13 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="8"/>
@@ -5367,16 +5367,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>172</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>175</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="5"/>
@@ -5403,25 +5403,25 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="E45" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -5445,16 +5445,16 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>184</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="5"/>
@@ -5481,16 +5481,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>188</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="5"/>
@@ -5517,16 +5517,16 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>192</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="5"/>
@@ -5553,25 +5553,25 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="E49" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="F49" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="G49" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>199</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -5595,22 +5595,22 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="E50" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="F50" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -5635,25 +5635,25 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="E51" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -5677,16 +5677,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="5"/>
@@ -5713,25 +5713,25 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="E53" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5755,16 +5755,16 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="5"/>
@@ -5791,16 +5791,16 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>227</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="5"/>
@@ -5827,16 +5827,16 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="34" t="s">
         <v>228</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>231</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="5"/>
@@ -5863,16 +5863,16 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>232</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>235</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="5"/>
@@ -5899,25 +5899,25 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="E58" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="F58" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="G58" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>242</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -5941,16 +5941,16 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="34" t="s">
         <v>243</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>246</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="5"/>
@@ -5983,16 +5983,16 @@
         <v>7</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>71</v>
@@ -6019,16 +6019,16 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>252</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="5"/>
@@ -6055,16 +6055,16 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>256</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="5"/>
@@ -6091,10 +6091,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="11"/>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="42" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>0</v>
@@ -6196,13 +6196,13 @@
         <v>10</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>11</v>
@@ -6238,13 +6238,13 @@
         <v>14</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E67" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>15</v>
@@ -6280,7 +6280,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="5"/>
@@ -6316,7 +6316,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="5"/>
@@ -6352,13 +6352,13 @@
         <v>24</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -6392,7 +6392,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="5"/>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="42" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C73" s="42" t="s">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>31</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>32</v>
@@ -6522,10 +6522,10 @@
         <v>33</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D75" s="34" t="s">
         <v>34</v>
@@ -6561,7 +6561,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D76" s="34" t="s">
         <v>37</v>
@@ -6591,25 +6591,25 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="E77" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="26" t="s">
-        <v>276</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -6636,19 +6636,19 @@
         <v>38</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>39</v>
@@ -6681,7 +6681,7 @@
         <v>42</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D79" s="34" t="s">
         <v>43</v>
@@ -6717,7 +6717,7 @@
         <v>45</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>46</v>
@@ -6726,7 +6726,7 @@
         <v>45</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G80" s="26" t="s">
         <v>47</v>
@@ -6759,7 +6759,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>50</v>
@@ -6768,7 +6768,7 @@
         <v>51</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -6799,7 +6799,7 @@
         <v>54</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>53</v>
@@ -6835,7 +6835,7 @@
         <v>49</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D83" s="34" t="s">
         <v>56</v>
@@ -6844,7 +6844,7 @@
         <v>49</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G83" s="26" t="s">
         <v>57</v>
@@ -6877,7 +6877,7 @@
         <v>59</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D84" s="34" t="s">
         <v>60</v>
@@ -6886,7 +6886,7 @@
         <v>59</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G84" s="26" t="s">
         <v>61</v>
@@ -6919,7 +6919,7 @@
         <v>63</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>64</v>
@@ -6955,7 +6955,7 @@
         <v>66</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D86" s="34" t="s">
         <v>67</v>
@@ -6991,7 +6991,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D87" s="34" t="s">
         <v>70</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C90" s="38" t="s">
         <v>0</v>
@@ -7121,16 +7121,16 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="D91" s="49" t="s">
         <v>290</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>293</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="5"/>
@@ -7157,16 +7157,16 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="49" t="s">
         <v>294</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="C92" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>297</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="5"/>
@@ -7193,16 +7193,16 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" s="49" t="s">
         <v>298</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C93" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>301</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="5"/>
@@ -7229,13 +7229,13 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C94" s="63" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D94" s="64"/>
       <c r="E94" s="8"/>
@@ -7263,16 +7263,16 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="49" t="s">
         <v>305</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C95" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D95" s="49" t="s">
-        <v>308</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="5"/>
@@ -7299,25 +7299,25 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="E96" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G96" s="28" t="s">
         <v>310</v>
-      </c>
-      <c r="C96" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G96" s="28" t="s">
-        <v>313</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -7341,16 +7341,16 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="49" t="s">
         <v>314</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C97" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="D97" s="49" t="s">
-        <v>317</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="5"/>
@@ -7377,16 +7377,16 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" s="49" t="s">
         <v>318</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="C98" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="49" t="s">
-        <v>321</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="5"/>
@@ -7413,16 +7413,16 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="5"/>
@@ -7449,16 +7449,16 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" s="49" t="s">
         <v>324</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C100" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>327</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="5"/>
@@ -7485,16 +7485,16 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" s="49" t="s">
         <v>328</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C101" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="D101" s="49" t="s">
-        <v>331</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="5"/>
@@ -7521,16 +7521,16 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" s="49" t="s">
         <v>332</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C102" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>335</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="5"/>
@@ -7557,16 +7557,16 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103" s="49" t="s">
         <v>336</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C103" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="D103" s="49" t="s">
-        <v>339</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="5"/>
@@ -7599,19 +7599,19 @@
         <v>47</v>
       </c>
       <c r="C104" s="63" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
@@ -7650,7 +7650,7 @@
         <v>7</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G105" s="28" t="s">
         <v>71</v>
@@ -7705,21 +7705,21 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="41" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B107" s="68" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="69" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G107" s="61" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
@@ -7775,10 +7775,10 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="71" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -7807,10 +7807,10 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -7839,10 +7839,10 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="72" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -7871,10 +7871,10 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -7903,10 +7903,10 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -7935,10 +7935,10 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -8010,7 +8010,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G116" s="74" t="s">
         <v>71</v>
@@ -8037,21 +8037,21 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="75" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B117" s="76" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="76" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G117" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
@@ -8103,10 +8103,10 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="42" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>0</v>
@@ -8139,13 +8139,13 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D120" s="79"/>
       <c r="E120" s="8"/>
@@ -8173,16 +8173,16 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" s="35" t="s">
         <v>366</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" s="35" t="s">
-        <v>369</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="5"/>
@@ -8209,25 +8209,25 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D122" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="E122" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="F122" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="G122" s="28" t="s">
         <v>373</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G122" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
@@ -8251,13 +8251,13 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D123" s="80"/>
       <c r="E123" s="8"/>
@@ -8285,13 +8285,13 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D124" s="80"/>
       <c r="E124" s="8"/>
@@ -8319,16 +8319,16 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="D125" s="30" t="s">
         <v>383</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="5"/>
@@ -8355,13 +8355,13 @@
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D126" s="81"/>
       <c r="E126" s="8"/>
@@ -8389,16 +8389,16 @@
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D127" s="35" t="s">
         <v>390</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D127" s="35" t="s">
-        <v>393</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="5"/>
@@ -8425,25 +8425,25 @@
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D128" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="E128" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G128" s="83" t="s">
         <v>395</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="D128" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="E128" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G128" s="83" t="s">
-        <v>398</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
@@ -8467,16 +8467,16 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="B129" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D129" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="B129" s="83" t="s">
-        <v>400</v>
-      </c>
-      <c r="C129" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D129" s="35" t="s">
-        <v>402</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="5"/>
@@ -8503,16 +8503,16 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="82" t="s">
+        <v>400</v>
+      </c>
+      <c r="B130" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D130" s="35" t="s">
         <v>403</v>
-      </c>
-      <c r="B130" s="83" t="s">
-        <v>404</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="D130" s="35" t="s">
-        <v>406</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="5"/>
@@ -8539,16 +8539,16 @@
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="83" t="s">
+        <v>405</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D131" s="35" t="s">
         <v>407</v>
-      </c>
-      <c r="B131" s="83" t="s">
-        <v>408</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D131" s="35" t="s">
-        <v>410</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="5"/>
@@ -8575,13 +8575,13 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D132" s="80"/>
       <c r="E132" s="8"/>
@@ -8609,16 +8609,16 @@
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="B133" s="83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="D133" s="35" t="s">
         <v>414</v>
-      </c>
-      <c r="B133" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D133" s="35" t="s">
-        <v>417</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="5"/>
@@ -8645,16 +8645,16 @@
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="B134" s="83" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D134" s="35" t="s">
         <v>418</v>
-      </c>
-      <c r="B134" s="83" t="s">
-        <v>419</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="D134" s="35" t="s">
-        <v>421</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="5"/>
@@ -8681,16 +8681,16 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="B135" s="83" t="s">
+        <v>420</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D135" s="35" t="s">
         <v>422</v>
-      </c>
-      <c r="B135" s="83" t="s">
-        <v>423</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>425</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="5"/>
@@ -8717,22 +8717,22 @@
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="B136" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="D136" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B136" s="83" t="s">
+      <c r="E136" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="F136" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="D136" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -8757,25 +8757,25 @@
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D137" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="E137" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="83" t="s">
         <v>433</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="E137" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G137" s="83" t="s">
-        <v>436</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
@@ -8799,25 +8799,25 @@
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="D138" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="B138" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="C138" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="D138" s="35" t="s">
-        <v>440</v>
-      </c>
       <c r="E138" s="36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="83" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
@@ -8841,16 +8841,16 @@
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="B139" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="35" t="s">
         <v>442</v>
-      </c>
-      <c r="B139" s="83" t="s">
-        <v>443</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="D139" s="35" t="s">
-        <v>445</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="5"/>
@@ -8877,16 +8877,16 @@
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="B140" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D140" s="35" t="s">
         <v>446</v>
-      </c>
-      <c r="B140" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="D140" s="35" t="s">
-        <v>449</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="5"/>
@@ -8913,25 +8913,25 @@
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="D141" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="E141" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="C141" s="34" t="s">
+      <c r="F141" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D141" s="35" t="s">
+      <c r="G141" s="83" t="s">
         <v>453</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G141" s="83" t="s">
-        <v>456</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
@@ -8955,16 +8955,16 @@
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="B142" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D142" s="35" t="s">
         <v>457</v>
-      </c>
-      <c r="B142" s="83" t="s">
-        <v>458</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>460</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="5"/>
@@ -8991,25 +8991,25 @@
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="82" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="B143" s="83" t="s">
+      <c r="E143" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="34" t="s">
+      <c r="F143" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="G143" s="83" t="s">
         <v>464</v>
-      </c>
-      <c r="E143" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="G143" s="83" t="s">
-        <v>467</v>
       </c>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
@@ -9033,25 +9033,25 @@
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="D144" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="B144" s="36" t="s">
+      <c r="E144" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="83" t="s">
         <v>469</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D144" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E144" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G144" s="83" t="s">
-        <v>472</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
@@ -9075,16 +9075,16 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="82" t="s">
+        <v>470</v>
+      </c>
+      <c r="B145" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D145" s="35" t="s">
         <v>473</v>
-      </c>
-      <c r="B145" s="83" t="s">
-        <v>474</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="D145" s="35" t="s">
-        <v>476</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="5"/>
@@ -9111,22 +9111,22 @@
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="82" t="s">
+        <v>474</v>
+      </c>
+      <c r="B146" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="D146" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="B146" s="83" t="s">
+      <c r="E146" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="C146" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="D146" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>481</v>
-      </c>
       <c r="F146" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -9151,13 +9151,13 @@
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="82" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D147" s="80"/>
       <c r="E147" s="8"/>
@@ -9185,16 +9185,16 @@
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="B148" s="83" t="s">
+        <v>483</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D148" s="35" t="s">
         <v>485</v>
-      </c>
-      <c r="B148" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="D148" s="35" t="s">
-        <v>488</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="5"/>
@@ -9221,16 +9221,16 @@
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="D149" s="35" t="s">
         <v>489</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="D149" s="35" t="s">
-        <v>492</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="5"/>
@@ -9257,16 +9257,16 @@
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="82" t="s">
+        <v>490</v>
+      </c>
+      <c r="B150" s="83" t="s">
+        <v>491</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="D150" s="35" t="s">
         <v>493</v>
-      </c>
-      <c r="B150" s="83" t="s">
-        <v>494</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="D150" s="35" t="s">
-        <v>496</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="5"/>
@@ -9293,16 +9293,16 @@
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C151" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>497</v>
-      </c>
-      <c r="B151" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="C151" s="34" t="s">
-        <v>499</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>500</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="5"/>
@@ -9329,25 +9329,25 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="D152" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="B152" s="31" t="s">
+      <c r="E152" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" s="83" t="s">
         <v>502</v>
-      </c>
-      <c r="C152" s="34" t="s">
-        <v>503</v>
-      </c>
-      <c r="D152" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="E152" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G152" s="83" t="s">
-        <v>505</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
@@ -9371,22 +9371,22 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="82" t="s">
+        <v>503</v>
+      </c>
+      <c r="B153" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="D153" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="B153" s="83" t="s">
+      <c r="E153" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="C153" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="D153" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="E153" s="36" t="s">
-        <v>510</v>
-      </c>
       <c r="F153" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -9411,16 +9411,16 @@
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="82" t="s">
+        <v>508</v>
+      </c>
+      <c r="B154" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>511</v>
-      </c>
-      <c r="B154" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="C154" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="D154" s="35" t="s">
-        <v>514</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="5"/>
@@ -9447,16 +9447,16 @@
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="82" t="s">
+        <v>512</v>
+      </c>
+      <c r="B155" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="D155" s="35" t="s">
         <v>515</v>
-      </c>
-      <c r="B155" s="83" t="s">
-        <v>516</v>
-      </c>
-      <c r="C155" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>518</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="5"/>
@@ -9483,25 +9483,25 @@
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="82" t="s">
+        <v>516</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D156" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="E156" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" s="83" t="s">
         <v>520</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G156" s="83" t="s">
-        <v>523</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
@@ -9525,13 +9525,13 @@
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D157" s="22"/>
       <c r="E157" s="8"/>
@@ -9559,13 +9559,13 @@
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D158" s="22"/>
       <c r="E158" s="8"/>
@@ -9593,25 +9593,25 @@
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="D159" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="B159" s="31" t="s">
+      <c r="E159" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" s="83" t="s">
         <v>531</v>
-      </c>
-      <c r="C159" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="E159" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G159" s="83" t="s">
-        <v>534</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
@@ -9635,25 +9635,25 @@
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="82" t="s">
+        <v>532</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="D160" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="E160" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" s="83" t="s">
         <v>536</v>
-      </c>
-      <c r="C160" s="34" t="s">
-        <v>537</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="E160" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G160" s="83" t="s">
-        <v>539</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
@@ -9677,16 +9677,16 @@
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="82" t="s">
+        <v>537</v>
+      </c>
+      <c r="B161" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="D161" s="35" t="s">
         <v>540</v>
-      </c>
-      <c r="B161" s="83" t="s">
-        <v>541</v>
-      </c>
-      <c r="C161" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>543</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="5"/>
@@ -9713,13 +9713,13 @@
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="82" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D162" s="80"/>
       <c r="E162" s="8"/>
@@ -9747,16 +9747,16 @@
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="B163" s="83" t="s">
+        <v>545</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="D163" s="35" t="s">
         <v>547</v>
-      </c>
-      <c r="B163" s="83" t="s">
-        <v>548</v>
-      </c>
-      <c r="C163" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>550</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="5"/>
@@ -9783,16 +9783,16 @@
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="82" t="s">
+        <v>548</v>
+      </c>
+      <c r="B164" s="83" t="s">
+        <v>549</v>
+      </c>
+      <c r="C164" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="D164" s="35" t="s">
         <v>551</v>
-      </c>
-      <c r="B164" s="83" t="s">
-        <v>552</v>
-      </c>
-      <c r="C164" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>554</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="5"/>
@@ -9819,13 +9819,13 @@
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="82" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D165" s="80"/>
       <c r="E165" s="8"/>
@@ -9853,16 +9853,16 @@
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="D166" s="35" t="s">
         <v>558</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="C166" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>561</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="5"/>
@@ -9889,16 +9889,16 @@
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="82" t="s">
+        <v>559</v>
+      </c>
+      <c r="B167" s="83" t="s">
+        <v>560</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="D167" s="35" t="s">
         <v>562</v>
-      </c>
-      <c r="B167" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="C167" s="34" t="s">
-        <v>564</v>
-      </c>
-      <c r="D167" s="35" t="s">
-        <v>565</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="5"/>
@@ -9925,13 +9925,13 @@
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="82" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D168" s="80"/>
       <c r="E168" s="8"/>
@@ -9959,16 +9959,16 @@
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="82" t="s">
+        <v>566</v>
+      </c>
+      <c r="B169" s="83" t="s">
+        <v>567</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="D169" s="35" t="s">
         <v>569</v>
-      </c>
-      <c r="B169" s="83" t="s">
-        <v>570</v>
-      </c>
-      <c r="C169" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>572</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="5"/>
@@ -9995,16 +9995,16 @@
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="82" t="s">
+        <v>570</v>
+      </c>
+      <c r="B170" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="D170" s="35" t="s">
         <v>573</v>
-      </c>
-      <c r="B170" s="83" t="s">
-        <v>574</v>
-      </c>
-      <c r="C170" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="D170" s="35" t="s">
-        <v>576</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="5"/>
@@ -10031,16 +10031,16 @@
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="82" t="s">
+        <v>574</v>
+      </c>
+      <c r="B171" s="83" t="s">
+        <v>575</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="D171" s="35" t="s">
         <v>577</v>
-      </c>
-      <c r="B171" s="83" t="s">
-        <v>578</v>
-      </c>
-      <c r="C171" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="D171" s="35" t="s">
-        <v>580</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="5"/>
@@ -10067,25 +10067,25 @@
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D172" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="B172" s="31" t="s">
+      <c r="E172" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G172" s="83" t="s">
         <v>582</v>
-      </c>
-      <c r="C172" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="D172" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="E172" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G172" s="83" t="s">
-        <v>585</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
@@ -10109,16 +10109,16 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="82" t="s">
+        <v>583</v>
+      </c>
+      <c r="B173" s="83" t="s">
+        <v>584</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="D173" s="35" t="s">
         <v>586</v>
-      </c>
-      <c r="B173" s="83" t="s">
-        <v>587</v>
-      </c>
-      <c r="C173" s="34" t="s">
-        <v>588</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>589</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="5"/>
@@ -10145,13 +10145,13 @@
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="82" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D174" s="80"/>
       <c r="E174" s="8"/>
@@ -10179,16 +10179,16 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="82" t="s">
+        <v>589</v>
+      </c>
+      <c r="B175" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="D175" s="35" t="s">
         <v>592</v>
-      </c>
-      <c r="B175" s="83" t="s">
-        <v>593</v>
-      </c>
-      <c r="C175" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="D175" s="35" t="s">
-        <v>595</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="5"/>
@@ -10215,16 +10215,16 @@
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="B176" s="83" t="s">
+        <v>594</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="D176" s="35" t="s">
         <v>596</v>
-      </c>
-      <c r="B176" s="83" t="s">
-        <v>597</v>
-      </c>
-      <c r="C176" s="34" t="s">
-        <v>598</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>599</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="5"/>
@@ -10251,13 +10251,13 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="82" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D177" s="80"/>
       <c r="E177" s="8"/>
@@ -10288,13 +10288,13 @@
         <v>3</v>
       </c>
       <c r="B178" s="83" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="5"/>
@@ -10321,16 +10321,16 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="82" t="s">
+        <v>603</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="D179" s="35" t="s">
         <v>606</v>
-      </c>
-      <c r="B179" s="31" t="s">
-        <v>607</v>
-      </c>
-      <c r="C179" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="D179" s="35" t="s">
-        <v>609</v>
       </c>
       <c r="E179" s="8"/>
       <c r="F179" s="5"/>
@@ -10357,25 +10357,25 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="82" t="s">
+        <v>607</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="D180" s="35" t="s">
         <v>610</v>
       </c>
-      <c r="B180" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C180" s="34" t="s">
-        <v>612</v>
-      </c>
-      <c r="D180" s="35" t="s">
-        <v>613</v>
-      </c>
       <c r="E180" s="31" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G180" s="83" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
@@ -10399,16 +10399,16 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="B181" s="83" t="s">
+        <v>613</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="D181" s="35" t="s">
         <v>615</v>
-      </c>
-      <c r="B181" s="83" t="s">
-        <v>616</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>617</v>
-      </c>
-      <c r="D181" s="35" t="s">
-        <v>618</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="5"/>
@@ -10435,16 +10435,16 @@
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="82" t="s">
+        <v>616</v>
+      </c>
+      <c r="B182" s="83" t="s">
+        <v>617</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="D182" s="35" t="s">
         <v>619</v>
-      </c>
-      <c r="B182" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="C182" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="D182" s="35" t="s">
-        <v>622</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="5"/>
@@ -10471,16 +10471,16 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="82" t="s">
+        <v>620</v>
+      </c>
+      <c r="B183" s="83" t="s">
+        <v>621</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="D183" s="35" t="s">
         <v>623</v>
-      </c>
-      <c r="B183" s="83" t="s">
-        <v>624</v>
-      </c>
-      <c r="C183" s="34" t="s">
-        <v>625</v>
-      </c>
-      <c r="D183" s="35" t="s">
-        <v>626</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="5"/>
@@ -10507,16 +10507,16 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="82" t="s">
+        <v>624</v>
+      </c>
+      <c r="B184" s="83" t="s">
+        <v>625</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="D184" s="35" t="s">
         <v>627</v>
-      </c>
-      <c r="B184" s="83" t="s">
-        <v>628</v>
-      </c>
-      <c r="C184" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="D184" s="35" t="s">
-        <v>630</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="5"/>
@@ -10543,13 +10543,13 @@
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="82" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D185" s="80"/>
       <c r="E185" s="8"/>
@@ -10577,16 +10577,16 @@
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="B186" s="83" t="s">
+        <v>632</v>
+      </c>
+      <c r="C186" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D186" s="35" t="s">
         <v>634</v>
-      </c>
-      <c r="B186" s="83" t="s">
-        <v>635</v>
-      </c>
-      <c r="C186" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="D186" s="35" t="s">
-        <v>637</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="5"/>
@@ -10613,25 +10613,25 @@
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="82" t="s">
+        <v>635</v>
+      </c>
+      <c r="B187" s="59" t="s">
+        <v>636</v>
+      </c>
+      <c r="C187" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D187" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="B187" s="59" t="s">
+      <c r="E187" s="31" t="s">
         <v>639</v>
       </c>
-      <c r="C187" s="34" t="s">
+      <c r="F187" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G187" s="83" t="s">
         <v>640</v>
-      </c>
-      <c r="D187" s="35" t="s">
-        <v>641</v>
-      </c>
-      <c r="E187" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="G187" s="83" t="s">
-        <v>643</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
@@ -10655,16 +10655,16 @@
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="B188" s="83" t="s">
+        <v>642</v>
+      </c>
+      <c r="C188" s="34" t="s">
+        <v>643</v>
+      </c>
+      <c r="D188" s="35" t="s">
         <v>644</v>
-      </c>
-      <c r="B188" s="83" t="s">
-        <v>645</v>
-      </c>
-      <c r="C188" s="34" t="s">
-        <v>646</v>
-      </c>
-      <c r="D188" s="35" t="s">
-        <v>647</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="5"/>
@@ -10691,16 +10691,16 @@
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="B189" s="83" t="s">
+        <v>646</v>
+      </c>
+      <c r="C189" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="D189" s="35" t="s">
         <v>648</v>
-      </c>
-      <c r="B189" s="83" t="s">
-        <v>649</v>
-      </c>
-      <c r="C189" s="34" t="s">
-        <v>650</v>
-      </c>
-      <c r="D189" s="35" t="s">
-        <v>651</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="5"/>
@@ -10727,22 +10727,22 @@
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="B190" s="83" t="s">
+        <v>650</v>
+      </c>
+      <c r="C190" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="D190" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="B190" s="83" t="s">
+      <c r="E190" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="F190" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="D190" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -10767,16 +10767,16 @@
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="B191" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="C191" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="D191" s="35" t="s">
         <v>658</v>
-      </c>
-      <c r="B191" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="C191" s="34" t="s">
-        <v>660</v>
-      </c>
-      <c r="D191" s="35" t="s">
-        <v>661</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="5"/>
@@ -10803,13 +10803,13 @@
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="26" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C192" s="34" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D192" s="80"/>
       <c r="E192" s="8"/>
@@ -10837,13 +10837,13 @@
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="26" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B193" s="84" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C193" s="34" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D193" s="80"/>
       <c r="E193" s="8"/>
@@ -10871,22 +10871,22 @@
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="B194" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="C194" s="34" t="s">
+        <v>667</v>
+      </c>
+      <c r="D194" s="35" t="s">
         <v>668</v>
       </c>
-      <c r="B194" s="28" t="s">
+      <c r="E194" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="C194" s="34" t="s">
-        <v>670</v>
-      </c>
-      <c r="D194" s="35" t="s">
-        <v>671</v>
-      </c>
-      <c r="E194" s="31" t="s">
-        <v>672</v>
-      </c>
       <c r="F194" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -10911,13 +10911,13 @@
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="26" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C195" s="34" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D195" s="80"/>
       <c r="E195" s="8"/>
@@ -10945,22 +10945,22 @@
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="B196" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="C196" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="D196" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="B196" s="28" t="s">
+      <c r="E196" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="C196" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="D196" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="E196" s="31" t="s">
-        <v>680</v>
-      </c>
       <c r="F196" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -10985,22 +10985,22 @@
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="82" t="s">
+        <v>678</v>
+      </c>
+      <c r="B197" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="C197" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="D197" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="B197" s="83" t="s">
+      <c r="E197" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="C197" s="34" t="s">
-        <v>683</v>
-      </c>
-      <c r="D197" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="E197" s="36" t="s">
-        <v>685</v>
-      </c>
       <c r="F197" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -11025,22 +11025,22 @@
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="82" t="s">
+        <v>683</v>
+      </c>
+      <c r="B198" s="83" t="s">
+        <v>684</v>
+      </c>
+      <c r="C198" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="D198" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="B198" s="83" t="s">
+      <c r="E198" s="36" t="s">
         <v>687</v>
       </c>
-      <c r="C198" s="34" t="s">
-        <v>688</v>
-      </c>
-      <c r="D198" s="35" t="s">
-        <v>689</v>
-      </c>
-      <c r="E198" s="36" t="s">
-        <v>690</v>
-      </c>
       <c r="F198" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -11065,25 +11065,25 @@
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="82" t="s">
+        <v>688</v>
+      </c>
+      <c r="B199" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="C199" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="D199" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="B199" s="36" t="s">
-        <v>692</v>
-      </c>
-      <c r="C199" s="34" t="s">
-        <v>693</v>
-      </c>
-      <c r="D199" s="35" t="s">
-        <v>694</v>
-      </c>
       <c r="E199" s="36" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G199" s="83" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
@@ -11107,22 +11107,22 @@
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="82" t="s">
+        <v>693</v>
+      </c>
+      <c r="B200" s="83" t="s">
+        <v>694</v>
+      </c>
+      <c r="C200" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="D200" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="B200" s="83" t="s">
+      <c r="E200" s="85" t="s">
         <v>697</v>
       </c>
-      <c r="C200" s="34" t="s">
-        <v>698</v>
-      </c>
-      <c r="D200" s="35" t="s">
-        <v>699</v>
-      </c>
-      <c r="E200" s="85" t="s">
-        <v>700</v>
-      </c>
       <c r="F200" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -11147,25 +11147,25 @@
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="82" t="s">
+        <v>698</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="C201" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="D201" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="B201" s="36" t="s">
-        <v>702</v>
-      </c>
-      <c r="C201" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="D201" s="35" t="s">
-        <v>704</v>
-      </c>
       <c r="E201" s="36" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G201" s="83" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
@@ -11189,25 +11189,25 @@
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="82" t="s">
+        <v>703</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C202" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="D202" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="B202" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="C202" s="34" t="s">
-        <v>708</v>
-      </c>
-      <c r="D202" s="35" t="s">
-        <v>709</v>
-      </c>
       <c r="E202" s="36" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G202" s="83" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
@@ -11231,22 +11231,22 @@
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="82" t="s">
+        <v>708</v>
+      </c>
+      <c r="B203" s="83" t="s">
+        <v>709</v>
+      </c>
+      <c r="C203" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="D203" s="35" t="s">
         <v>711</v>
       </c>
-      <c r="B203" s="83" t="s">
+      <c r="E203" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="C203" s="34" t="s">
-        <v>713</v>
-      </c>
-      <c r="D203" s="35" t="s">
-        <v>714</v>
-      </c>
-      <c r="E203" s="36" t="s">
-        <v>715</v>
-      </c>
       <c r="F203" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -11271,25 +11271,25 @@
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="82" t="s">
+        <v>713</v>
+      </c>
+      <c r="B204" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="C204" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="D204" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="B204" s="36" t="s">
+      <c r="E204" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G204" s="83" t="s">
         <v>717</v>
-      </c>
-      <c r="C204" s="34" t="s">
-        <v>718</v>
-      </c>
-      <c r="D204" s="35" t="s">
-        <v>719</v>
-      </c>
-      <c r="E204" s="36" t="s">
-        <v>717</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G204" s="83" t="s">
-        <v>720</v>
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
@@ -11313,16 +11313,16 @@
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="82" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B205" s="83" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D205" s="35" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E205" s="8"/>
       <c r="F205" s="5"/>
@@ -11349,25 +11349,25 @@
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="82" t="s">
+        <v>721</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C206" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="D206" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="B206" s="31" t="s">
+      <c r="E206" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G206" s="83" t="s">
         <v>725</v>
-      </c>
-      <c r="C206" s="34" t="s">
-        <v>726</v>
-      </c>
-      <c r="D206" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="E206" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G206" s="83" t="s">
-        <v>728</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
@@ -11391,25 +11391,25 @@
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="82" t="s">
+        <v>726</v>
+      </c>
+      <c r="B207" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="C207" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="D207" s="35" t="s">
         <v>729</v>
       </c>
-      <c r="B207" s="36" t="s">
+      <c r="E207" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G207" s="83" t="s">
         <v>730</v>
-      </c>
-      <c r="C207" s="34" t="s">
-        <v>731</v>
-      </c>
-      <c r="D207" s="35" t="s">
-        <v>732</v>
-      </c>
-      <c r="E207" s="36" t="s">
-        <v>730</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G207" s="83" t="s">
-        <v>733</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
@@ -11433,16 +11433,16 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="82" t="s">
+        <v>731</v>
+      </c>
+      <c r="B208" s="83" t="s">
+        <v>732</v>
+      </c>
+      <c r="C208" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="D208" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="B208" s="83" t="s">
-        <v>735</v>
-      </c>
-      <c r="C208" s="34" t="s">
-        <v>736</v>
-      </c>
-      <c r="D208" s="35" t="s">
-        <v>737</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
@@ -11469,16 +11469,16 @@
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="82" t="s">
+        <v>735</v>
+      </c>
+      <c r="B209" s="83" t="s">
+        <v>736</v>
+      </c>
+      <c r="C209" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="D209" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="B209" s="83" t="s">
-        <v>739</v>
-      </c>
-      <c r="C209" s="34" t="s">
-        <v>740</v>
-      </c>
-      <c r="D209" s="35" t="s">
-        <v>741</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="5"/>
@@ -11505,13 +11505,13 @@
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B210" s="31" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D210" s="80"/>
       <c r="E210" s="8"/>
@@ -11539,16 +11539,16 @@
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="82" t="s">
+        <v>742</v>
+      </c>
+      <c r="B211" s="83" t="s">
+        <v>743</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>744</v>
+      </c>
+      <c r="D211" s="35" t="s">
         <v>745</v>
-      </c>
-      <c r="B211" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="C211" s="34" t="s">
-        <v>747</v>
-      </c>
-      <c r="D211" s="35" t="s">
-        <v>748</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="5"/>
@@ -11575,16 +11575,16 @@
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="82" t="s">
+        <v>746</v>
+      </c>
+      <c r="B212" s="83" t="s">
+        <v>747</v>
+      </c>
+      <c r="C212" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="D212" s="35" t="s">
         <v>749</v>
-      </c>
-      <c r="B212" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="C212" s="34" t="s">
-        <v>751</v>
-      </c>
-      <c r="D212" s="35" t="s">
-        <v>752</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="5"/>
@@ -11611,13 +11611,13 @@
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="82" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C213" s="34" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D213" s="80"/>
       <c r="E213" s="8"/>
@@ -11645,22 +11645,22 @@
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="82" t="s">
+        <v>753</v>
+      </c>
+      <c r="B214" s="83" t="s">
+        <v>754</v>
+      </c>
+      <c r="C214" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="D214" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="B214" s="83" t="s">
+      <c r="E214" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="C214" s="34" t="s">
+      <c r="F214" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="D214" s="35" t="s">
-        <v>759</v>
-      </c>
-      <c r="E214" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>761</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
@@ -11685,25 +11685,25 @@
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="82" t="s">
+        <v>759</v>
+      </c>
+      <c r="B215" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="C215" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="D215" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="B215" s="36" t="s">
+      <c r="E215" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G215" s="83" t="s">
         <v>763</v>
-      </c>
-      <c r="C215" s="34" t="s">
-        <v>764</v>
-      </c>
-      <c r="D215" s="35" t="s">
-        <v>765</v>
-      </c>
-      <c r="E215" s="36" t="s">
-        <v>763</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G215" s="83" t="s">
-        <v>766</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
@@ -11727,22 +11727,22 @@
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="D216" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="B216" s="28" t="s">
+      <c r="E216" s="36" t="s">
         <v>768</v>
       </c>
-      <c r="C216" s="34" t="s">
-        <v>769</v>
-      </c>
-      <c r="D216" s="35" t="s">
-        <v>770</v>
-      </c>
-      <c r="E216" s="36" t="s">
-        <v>771</v>
-      </c>
       <c r="F216" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
@@ -11767,13 +11767,13 @@
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D217" s="80"/>
       <c r="E217" s="8"/>
@@ -11801,13 +11801,13 @@
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="86" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B218" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D218" s="80"/>
       <c r="E218" s="8"/>
@@ -11835,13 +11835,13 @@
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="86" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B219" s="36" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D219" s="80"/>
       <c r="E219" s="8"/>
@@ -11869,13 +11869,13 @@
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="86" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B220" s="36" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D220" s="80"/>
       <c r="E220" s="8"/>
@@ -11903,13 +11903,13 @@
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B221" s="36" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D221" s="80"/>
       <c r="E221" s="8"/>
@@ -11937,13 +11937,13 @@
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B222" s="36" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D222" s="80"/>
       <c r="E222" s="8"/>
@@ -11971,13 +11971,13 @@
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B223" s="36" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D223" s="80"/>
       <c r="E223" s="8"/>
@@ -12005,13 +12005,13 @@
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B224" s="36" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D224" s="80"/>
       <c r="E224" s="8"/>
@@ -12039,13 +12039,13 @@
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D225" s="80"/>
       <c r="E225" s="8"/>
@@ -12073,13 +12073,13 @@
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="26" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B226" s="36" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D226" s="80"/>
       <c r="E226" s="8"/>
@@ -12107,16 +12107,16 @@
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="D227" s="35" t="s">
         <v>802</v>
-      </c>
-      <c r="B227" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="C227" s="34" t="s">
-        <v>804</v>
-      </c>
-      <c r="D227" s="35" t="s">
-        <v>805</v>
       </c>
       <c r="E227" s="8"/>
       <c r="F227" s="5"/>
@@ -12143,13 +12143,13 @@
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D228" s="80"/>
       <c r="E228" s="8"/>
@@ -12177,16 +12177,16 @@
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="82" t="s">
+        <v>806</v>
+      </c>
+      <c r="B229" s="83" t="s">
+        <v>807</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>808</v>
+      </c>
+      <c r="D229" s="35" t="s">
         <v>809</v>
-      </c>
-      <c r="B229" s="83" t="s">
-        <v>810</v>
-      </c>
-      <c r="C229" s="34" t="s">
-        <v>811</v>
-      </c>
-      <c r="D229" s="35" t="s">
-        <v>812</v>
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="5"/>
@@ -12213,16 +12213,16 @@
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="82" t="s">
+        <v>810</v>
+      </c>
+      <c r="B230" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="D230" s="35" t="s">
         <v>813</v>
-      </c>
-      <c r="B230" s="83" t="s">
-        <v>814</v>
-      </c>
-      <c r="C230" s="34" t="s">
-        <v>815</v>
-      </c>
-      <c r="D230" s="35" t="s">
-        <v>816</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="5"/>
@@ -12249,16 +12249,16 @@
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="82" t="s">
+        <v>814</v>
+      </c>
+      <c r="B231" s="83" t="s">
+        <v>815</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="D231" s="35" t="s">
         <v>817</v>
-      </c>
-      <c r="B231" s="83" t="s">
-        <v>818</v>
-      </c>
-      <c r="C231" s="34" t="s">
-        <v>819</v>
-      </c>
-      <c r="D231" s="35" t="s">
-        <v>820</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="5"/>
@@ -12285,16 +12285,16 @@
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="82" t="s">
+        <v>818</v>
+      </c>
+      <c r="B232" s="83" t="s">
+        <v>819</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="D232" s="35" t="s">
         <v>821</v>
-      </c>
-      <c r="B232" s="83" t="s">
-        <v>822</v>
-      </c>
-      <c r="C232" s="34" t="s">
-        <v>823</v>
-      </c>
-      <c r="D232" s="35" t="s">
-        <v>824</v>
       </c>
       <c r="E232" s="8"/>
       <c r="F232" s="5"/>
@@ -12321,16 +12321,16 @@
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="82" t="s">
+        <v>822</v>
+      </c>
+      <c r="B233" s="83" t="s">
+        <v>823</v>
+      </c>
+      <c r="C233" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="D233" s="35" t="s">
         <v>825</v>
-      </c>
-      <c r="B233" s="83" t="s">
-        <v>826</v>
-      </c>
-      <c r="C233" s="34" t="s">
-        <v>827</v>
-      </c>
-      <c r="D233" s="35" t="s">
-        <v>828</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="5"/>
@@ -12357,22 +12357,22 @@
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="D234" s="35" t="s">
         <v>829</v>
       </c>
-      <c r="B234" s="31" t="s">
+      <c r="E234" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F234" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="C234" s="34" t="s">
-        <v>831</v>
-      </c>
-      <c r="D234" s="35" t="s">
-        <v>832</v>
-      </c>
-      <c r="E234" s="31" t="s">
-        <v>830</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>833</v>
       </c>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
@@ -12397,13 +12397,13 @@
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="26" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B235" s="36" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C235" s="34" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D235" s="22"/>
       <c r="E235" s="8"/>
@@ -12431,16 +12431,16 @@
     </row>
     <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="82" t="s">
+        <v>834</v>
+      </c>
+      <c r="B236" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="D236" s="35" t="s">
         <v>837</v>
-      </c>
-      <c r="B236" s="83" t="s">
-        <v>838</v>
-      </c>
-      <c r="C236" s="34" t="s">
-        <v>839</v>
-      </c>
-      <c r="D236" s="35" t="s">
-        <v>840</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="5"/>
@@ -12467,25 +12467,25 @@
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="C237" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="D237" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="B237" s="31" t="s">
+      <c r="E237" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G237" s="28" t="s">
         <v>842</v>
-      </c>
-      <c r="C237" s="34" t="s">
-        <v>843</v>
-      </c>
-      <c r="D237" s="35" t="s">
-        <v>844</v>
-      </c>
-      <c r="E237" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G237" s="28" t="s">
-        <v>845</v>
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
@@ -12509,25 +12509,25 @@
     </row>
     <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="82" t="s">
+        <v>843</v>
+      </c>
+      <c r="B238" s="36" t="s">
+        <v>844</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="D238" s="35" t="s">
         <v>846</v>
       </c>
-      <c r="B238" s="36" t="s">
+      <c r="E238" s="36" t="s">
+        <v>844</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G238" s="83" t="s">
         <v>847</v>
-      </c>
-      <c r="C238" s="34" t="s">
-        <v>848</v>
-      </c>
-      <c r="D238" s="35" t="s">
-        <v>849</v>
-      </c>
-      <c r="E238" s="36" t="s">
-        <v>847</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G238" s="83" t="s">
-        <v>850</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
@@ -12551,20 +12551,20 @@
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="82" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B239" s="36" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D239" s="80"/>
       <c r="E239" s="36" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G239" s="83"/>
       <c r="H239" s="6"/>
@@ -12589,16 +12589,16 @@
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="82" t="s">
+        <v>851</v>
+      </c>
+      <c r="B240" s="83" t="s">
+        <v>852</v>
+      </c>
+      <c r="C240" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="D240" s="35" t="s">
         <v>854</v>
-      </c>
-      <c r="B240" s="83" t="s">
-        <v>855</v>
-      </c>
-      <c r="C240" s="34" t="s">
-        <v>856</v>
-      </c>
-      <c r="D240" s="35" t="s">
-        <v>857</v>
       </c>
       <c r="E240" s="8"/>
       <c r="F240" s="5"/>
@@ -12625,16 +12625,16 @@
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="B241" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="C241" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="D241" s="35" t="s">
         <v>858</v>
-      </c>
-      <c r="B241" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="C241" s="34" t="s">
-        <v>860</v>
-      </c>
-      <c r="D241" s="35" t="s">
-        <v>861</v>
       </c>
       <c r="E241" s="8"/>
       <c r="F241" s="5"/>
@@ -12661,13 +12661,13 @@
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="26" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C242" s="34" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D242" s="22"/>
       <c r="E242" s="8"/>
@@ -12695,22 +12695,22 @@
     </row>
     <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="26" t="s">
+        <v>862</v>
+      </c>
+      <c r="B243" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="D243" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="B243" s="28" t="s">
+      <c r="E243" s="31" t="s">
         <v>866</v>
       </c>
-      <c r="C243" s="34" t="s">
+      <c r="F243" s="5" t="s">
         <v>867</v>
-      </c>
-      <c r="D243" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="E243" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>870</v>
       </c>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
@@ -12735,16 +12735,16 @@
     </row>
     <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="B244" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="C244" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="D244" s="35" t="s">
         <v>871</v>
-      </c>
-      <c r="B244" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="C244" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="D244" s="35" t="s">
-        <v>874</v>
       </c>
       <c r="E244" s="8"/>
       <c r="F244" s="5"/>
@@ -12771,16 +12771,16 @@
     </row>
     <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="82" t="s">
+        <v>872</v>
+      </c>
+      <c r="B245" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="C245" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="D245" s="35" t="s">
         <v>875</v>
-      </c>
-      <c r="B245" s="83" t="s">
-        <v>876</v>
-      </c>
-      <c r="C245" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="D245" s="35" t="s">
-        <v>878</v>
       </c>
       <c r="E245" s="8"/>
       <c r="F245" s="5"/>
@@ -12807,16 +12807,16 @@
     </row>
     <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="26" t="s">
+        <v>876</v>
+      </c>
+      <c r="B246" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="C246" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="D246" s="35" t="s">
         <v>879</v>
-      </c>
-      <c r="B246" s="28" t="s">
-        <v>880</v>
-      </c>
-      <c r="C246" s="34" t="s">
-        <v>881</v>
-      </c>
-      <c r="D246" s="35" t="s">
-        <v>882</v>
       </c>
       <c r="E246" s="8"/>
       <c r="F246" s="5"/>
@@ -12858,7 +12858,7 @@
         <v>7</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G247" s="83" t="s">
         <v>6</v>
@@ -12885,7 +12885,7 @@
     </row>
     <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B248" s="32"/>
       <c r="C248" s="6"/>
@@ -12943,10 +12943,10 @@
     </row>
     <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="87" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B250" s="88" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C250" s="89" t="s">
         <v>0</v>
@@ -12988,13 +12988,13 @@
         <v>10</v>
       </c>
       <c r="D251" s="35" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E251" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G251" s="28" t="s">
         <v>11</v>
@@ -13030,13 +13030,13 @@
         <v>14</v>
       </c>
       <c r="D252" s="35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E252" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G252" s="28" t="s">
         <v>15</v>
@@ -13072,7 +13072,7 @@
         <v>18</v>
       </c>
       <c r="D253" s="35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E253" s="8"/>
       <c r="F253" s="5"/>
@@ -13108,7 +13108,7 @@
         <v>21</v>
       </c>
       <c r="D254" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="5"/>
@@ -13144,13 +13144,13 @@
         <v>24</v>
       </c>
       <c r="D255" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E255" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
@@ -13184,7 +13184,7 @@
         <v>28</v>
       </c>
       <c r="D256" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E256" s="8"/>
       <c r="F256" s="5"/>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -13269,10 +13269,10 @@
     </row>
     <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="41" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -13333,10 +13333,10 @@
     </row>
     <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="71" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B261" s="36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -13365,10 +13365,10 @@
     </row>
     <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B262" s="36" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -13397,10 +13397,10 @@
     </row>
     <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="72" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B263" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B264" s="36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -13461,10 +13461,10 @@
     </row>
     <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B265" s="36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -13493,10 +13493,10 @@
     </row>
     <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B266" s="36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -13525,10 +13525,10 @@
     </row>
     <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B267" s="36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -13568,7 +13568,7 @@
         <v>7</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G268" s="28" t="s">
         <v>71</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="94" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B269" s="95"/>
       <c r="C269" s="6"/>
@@ -13625,21 +13625,21 @@
     </row>
     <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="75" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B270" s="91" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="3"/>
       <c r="E270" s="91" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G270" s="92" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>

--- a/data/bulk/templates/Bulk_Upload_template_240227.xlsx
+++ b/data/bulk/templates/Bulk_Upload_template_240227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988C470-C815-4213-BA98-56312874BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857660F9-2236-437C-A313-099603A40085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3846,9 +3846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A273" sqref="A273"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/bulk/templates/Bulk_Upload_template_240227.xlsx
+++ b/data/bulk/templates/Bulk_Upload_template_240227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAEE6B4-9383-43CE-8511-A11ACEF0D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0133B951-6A91-4203-BA26-611AF759BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37170,9 +37170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EB38FD-CBF8-4C2A-9701-0081CADE2ADA}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B189" sqref="B189"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
